--- a/biology/Zoologie/Drongo_brillant/Drongo_brillant.xlsx
+++ b/biology/Zoologie/Drongo_brillant/Drongo_brillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicrurus adsimilis
 Le Drongo brillant (Dicrurus adsimilis) est une espèce de passereau de la famille des Dicruridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ 25 à 26 cm de longueur pour une masse de 34 à 48 g. Le mâle est surtout d'un noir brillant, bien que les ailes soient plus ternes. Il a une grosse tête et une queue fourchue. Le bec est noir et gros et l'œil rouge. Il a les pattes courtes et se tient très droit tandis qu'il est perché bien en vue, comme une pie-grièche. La femelle ressemble au mâle mais son plumage est moins brillant.
 L'appel est un métallique Strink-Strink.
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est insectivore. Il se nourrit en vol et sur le sol et apprécie les feux de brousse pour trouver sa nourriture.Il est capable d'imiter le cri d'alerte  des  suricates sentinelles (Suricata suricatta) pour voler la nourriture qu'ils trouvent. Il parasite aussi le Cratérope bicolore (Turdoides bicolor).
 </t>
@@ -575,7 +591,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond deux à quatre œufs dans un nid en coupe dans une fourchette haute d'un arbre.
 </t>
@@ -606,7 +624,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est agressif et n'a pas peur des autres oiseaux malgré sa petite taille et attaque des espèces beaucoup plus grandes comme les oiseaux de proie si son nid ou ses jeunes sont menacés.
 C'est un oiseau intelligent qui peut imiter le bruit de certains animaux.
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est commun en Afrique au sud du Sahara : Kenya...
 </t>
@@ -670,7 +692,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les forêts ouvertes et la brousse.
 </t>
@@ -701,7 +725,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Selon Peterson, cet oiseau est représenté par 4 sous-espèces :
 Dicrurus adsimilis adsimilis (Bechstein) 1794 ;
